--- a/biology/Botanique/Osmundaceae/Osmundaceae.xlsx
+++ b/biology/Botanique/Osmundaceae/Osmundaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Osmundaceae, seuls représentants de l'ordre des Osmundales, sont une famille de fougères. Le rhizome est ligneux avec des racines fibreuses. Les frondes ont un limbe pinnatiséqué. Elles sont disposées en rosette plus ou moins complète.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Osmunda dont l'origine est incertaine. Le nom était en usage bien avant que Linné ne l'applique. Il pourrait provenir du vieux français osmonde, une sorte de fougère. Il pourrait également être dérivé du vieux saxon ås mund, « la force de Dieu », faisant peut-être référence à la croissance majestueuse et rapide de la fougère au printemps. Il est également possible qu'elle ait été nommée en l'honneur de Osmond de Sées, évêque de Salisbury (1078-1099), ou d'un autre personnage historique portant un nom similaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Osmunda dont l'origine est incertaine. Le nom était en usage bien avant que Linné ne l'applique. Il pourrait provenir du vieux français osmonde, une sorte de fougère. Il pourrait également être dérivé du vieux saxon ås mund, « la force de Dieu », faisant peut-être référence à la croissance majestueuse et rapide de la fougère au printemps. Il est également possible qu'elle ait été nommée en l'honneur de Osmond de Sées, évêque de Salisbury (1078-1099), ou d'un autre personnage historique portant un nom similaire.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'ITIS      (2 août 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'ITIS      (2 août 2023) :
 Osmunda L.
 Osmundastrum C.Presl
-Selon Tropicos                                           (2 août 2023)[3] :
+Selon Tropicos                                           (2 août 2023) :
 Aphyllocalpa Lag., D. García &amp; Clemente, 1802
 Claytosmunda (Y.Yatabe, N. Murak. &amp; K. Iwats.) Metzgar &amp; Rouhan, 2016
 Leptopteris C.Presl, 1845
@@ -556,7 +572,7 @@
 Plenasium C.Presl, 1836
 Struthopteris Bernh., 1801
 Todea Willd. ex Bernh., 1801
-Selon The International Fossil Plant Names Index (IFPNI)                (2 août 2023)[4] († = genres fossiles) :
+Selon The International Fossil Plant Names Index (IFPNI)                (2 août 2023) († = genres fossiles) :
 Leptopteris
 † Osmunda-sporites
 † Osmundacidites
@@ -591,9 +607,11 @@
           <t>Phylogénie au sein des Ptéridophytes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
 </t>
         </is>
       </c>
